--- a/input_files/Behavior_Immune_data/AMA 27 GI tissues PMA iono 073013.xlsx
+++ b/input_files/Behavior_Immune_data/AMA 27 GI tissues PMA iono 073013.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephboktor/Documents/NHP_MIA_Omics/input_files/Behavior_Immune_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E18B515-884B-3546-8EEE-1853C132426B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="14370"/>
+    <workbookView xWindow="41040" yWindow="-240" windowWidth="34760" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +39,23 @@
     <sheet name="VEGF" sheetId="18" r:id="rId24"/>
     <sheet name="Sheet2" sheetId="19" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="141">
   <si>
     <t>G-CSF (18)</t>
   </si>
@@ -402,12 +419,72 @@
   <si>
     <t>Jejunum</t>
   </si>
+  <si>
+    <t>Ileum</t>
+  </si>
+  <si>
+    <t>39813_Ileum</t>
+  </si>
+  <si>
+    <t>39827_Ileum</t>
+  </si>
+  <si>
+    <t>39988_Ileum</t>
+  </si>
+  <si>
+    <t>40318_Ileum</t>
+  </si>
+  <si>
+    <t>40360_Ileum</t>
+  </si>
+  <si>
+    <t>40476_Ileum</t>
+  </si>
+  <si>
+    <t>39673_Ileum</t>
+  </si>
+  <si>
+    <t>40212_Ileum</t>
+  </si>
+  <si>
+    <t>40302_Ileum</t>
+  </si>
+  <si>
+    <t>40390_Ileum</t>
+  </si>
+  <si>
+    <t>40395_Ileum</t>
+  </si>
+  <si>
+    <t>40479_Ileum</t>
+  </si>
+  <si>
+    <t>40355_Ileum</t>
+  </si>
+  <si>
+    <t>40440_Ileum</t>
+  </si>
+  <si>
+    <t>40473_Ileum</t>
+  </si>
+  <si>
+    <t>40478_Ileum</t>
+  </si>
+  <si>
+    <t>39689_Ileum</t>
+  </si>
+  <si>
+    <t>40295_Ileum</t>
+  </si>
+  <si>
+    <t>40482_Ileum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,45 +761,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -769,7 +817,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -801,9 +849,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -835,6 +901,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1010,23 +1094,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB82"/>
+  <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -1112,7 +1196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>39813</v>
       </c>
@@ -1198,7 +1282,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>39827</v>
       </c>
@@ -1284,7 +1368,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>39988</v>
       </c>
@@ -1370,7 +1454,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>40318</v>
       </c>
@@ -1456,7 +1540,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40360</v>
       </c>
@@ -1542,7 +1626,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>40476</v>
       </c>
@@ -1628,7 +1712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>39673</v>
       </c>
@@ -1714,7 +1798,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>40212</v>
       </c>
@@ -1800,7 +1884,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>40302</v>
       </c>
@@ -1886,7 +1970,7 @@
         <v>264.5</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>40390</v>
       </c>
@@ -1972,7 +2056,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>40395</v>
       </c>
@@ -2058,7 +2142,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.75" thickBot="1">
+    <row r="13" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>40479</v>
       </c>
@@ -2144,7 +2228,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>40335</v>
       </c>
@@ -2230,7 +2314,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>40440</v>
       </c>
@@ -2316,7 +2400,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>40473</v>
       </c>
@@ -2402,7 +2486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>40478</v>
       </c>
@@ -2488,7 +2572,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>39689</v>
       </c>
@@ -2574,7 +2658,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>40228</v>
       </c>
@@ -2660,7 +2744,7 @@
         <v>243.5</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>40295</v>
       </c>
@@ -2746,7 +2830,7 @@
         <v>276.5</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15.75" thickBot="1">
+    <row r="21" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>40482</v>
       </c>
@@ -2832,7 +2916,7 @@
         <v>155.5</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>39813</v>
       </c>
@@ -2843,10 +2927,10 @@
         <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="F22">
         <v>954</v>
@@ -2918,7 +3002,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>39827</v>
       </c>
@@ -2929,10 +3013,10 @@
         <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="F23">
         <v>57</v>
@@ -3004,7 +3088,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>39988</v>
       </c>
@@ -3015,10 +3099,10 @@
         <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="F24">
         <v>96</v>
@@ -3090,7 +3174,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>40318</v>
       </c>
@@ -3101,10 +3185,10 @@
         <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="F25">
         <v>51.5</v>
@@ -3176,7 +3260,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>40360</v>
       </c>
@@ -3187,10 +3271,10 @@
         <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="F26">
         <v>14.5</v>
@@ -3262,7 +3346,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>40476</v>
       </c>
@@ -3273,10 +3357,10 @@
         <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="F27">
         <v>633.5</v>
@@ -3348,7 +3432,7 @@
         <v>303.5</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>39673</v>
       </c>
@@ -3359,10 +3443,10 @@
         <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="F28">
         <v>13</v>
@@ -3434,7 +3518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>40212</v>
       </c>
@@ -3445,10 +3529,10 @@
         <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="F29">
         <v>32.5</v>
@@ -3520,7 +3604,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>40302</v>
       </c>
@@ -3531,10 +3615,10 @@
         <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="F30">
         <v>43</v>
@@ -3606,7 +3690,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>40390</v>
       </c>
@@ -3617,10 +3701,10 @@
         <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F31">
         <v>121.5</v>
@@ -3692,7 +3776,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>40395</v>
       </c>
@@ -3703,10 +3787,10 @@
         <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="F32">
         <v>143</v>
@@ -3778,7 +3862,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="15.75" thickBot="1">
+    <row r="33" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>40479</v>
       </c>
@@ -3789,10 +3873,10 @@
         <v>107</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="F33" s="2">
         <v>20</v>
@@ -3864,7 +3948,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>40335</v>
       </c>
@@ -3875,10 +3959,10 @@
         <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="F34">
         <v>37</v>
@@ -3950,7 +4034,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>40440</v>
       </c>
@@ -3961,10 +4045,10 @@
         <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="F35">
         <v>53</v>
@@ -4036,7 +4120,7 @@
         <v>181.5</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>40473</v>
       </c>
@@ -4047,10 +4131,10 @@
         <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="F36">
         <v>33</v>
@@ -4122,7 +4206,7 @@
         <v>140.5</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>40478</v>
       </c>
@@ -4133,10 +4217,10 @@
         <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="F37">
         <v>82</v>
@@ -4208,7 +4292,7 @@
         <v>222.5</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>40295</v>
       </c>
@@ -4219,10 +4303,10 @@
         <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="F38">
         <v>170</v>
@@ -4294,7 +4378,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39689</v>
       </c>
@@ -4305,10 +4389,10 @@
         <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="F39">
         <v>207</v>
@@ -4380,7 +4464,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="15.75" thickBot="1">
+    <row r="40" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40482</v>
       </c>
@@ -4391,10 +4475,10 @@
         <v>112</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="F40" s="2">
         <v>148.5</v>
@@ -4466,7 +4550,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39813</v>
       </c>
@@ -4477,7 +4561,7 @@
         <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
         <v>32</v>
@@ -4552,7 +4636,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39827</v>
       </c>
@@ -4563,7 +4647,7 @@
         <v>110</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
         <v>60</v>
@@ -4638,7 +4722,7 @@
         <v>281.5</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>39988</v>
       </c>
@@ -4649,7 +4733,7 @@
         <v>110</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
         <v>36</v>
@@ -4724,7 +4808,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>40318</v>
       </c>
@@ -4735,7 +4819,7 @@
         <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
         <v>80</v>
@@ -4810,7 +4894,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>40360</v>
       </c>
@@ -4821,7 +4905,7 @@
         <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
         <v>92</v>
@@ -4896,7 +4980,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>40476</v>
       </c>
@@ -4907,7 +4991,7 @@
         <v>110</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
         <v>76</v>
@@ -4982,7 +5066,7 @@
         <v>512.5</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>39673</v>
       </c>
@@ -4993,7 +5077,7 @@
         <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s">
         <v>56</v>
@@ -5068,7 +5152,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>40212</v>
       </c>
@@ -5079,7 +5163,7 @@
         <v>107</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E48" t="s">
         <v>44</v>
@@ -5154,7 +5238,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>40302</v>
       </c>
@@ -5165,7 +5249,7 @@
         <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E49" t="s">
         <v>40</v>
@@ -5240,7 +5324,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>40390</v>
       </c>
@@ -5251,7 +5335,7 @@
         <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
         <v>28</v>
@@ -5326,7 +5410,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>40395</v>
       </c>
@@ -5337,7 +5421,7 @@
         <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E51" t="s">
         <v>72</v>
@@ -5412,7 +5496,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="15.75" thickBot="1">
+    <row r="52" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>40479</v>
       </c>
@@ -5423,7 +5507,7 @@
         <v>107</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>84</v>
@@ -5498,7 +5582,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>40335</v>
       </c>
@@ -5509,7 +5593,7 @@
         <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E53" t="s">
         <v>88</v>
@@ -5584,7 +5668,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>40440</v>
       </c>
@@ -5595,7 +5679,7 @@
         <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E54" t="s">
         <v>96</v>
@@ -5670,7 +5754,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>40473</v>
       </c>
@@ -5681,7 +5765,7 @@
         <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E55" t="s">
         <v>100</v>
@@ -5756,7 +5840,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>40478</v>
       </c>
@@ -5767,7 +5851,7 @@
         <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E56" t="s">
         <v>64</v>
@@ -5842,7 +5926,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>40228</v>
       </c>
@@ -5853,7 +5937,7 @@
         <v>109</v>
       </c>
       <c r="D57" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E57" t="s">
         <v>48</v>
@@ -5928,7 +6012,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>40295</v>
       </c>
@@ -5939,7 +6023,7 @@
         <v>109</v>
       </c>
       <c r="D58" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E58" t="s">
         <v>24</v>
@@ -6014,7 +6098,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>39689</v>
       </c>
@@ -6025,7 +6109,7 @@
         <v>109</v>
       </c>
       <c r="D59" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E59" t="s">
         <v>52</v>
@@ -6100,7 +6184,7 @@
         <v>395.5</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="15.75" thickBot="1">
+    <row r="60" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>40482</v>
       </c>
@@ -6111,7 +6195,7 @@
         <v>112</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>68</v>
@@ -6186,7 +6270,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>39813</v>
       </c>
@@ -6272,7 +6356,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>39827</v>
       </c>
@@ -6358,7 +6442,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>39988</v>
       </c>
@@ -6444,7 +6528,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>40318</v>
       </c>
@@ -6530,7 +6614,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>40360</v>
       </c>
@@ -6616,7 +6700,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>40476</v>
       </c>
@@ -6702,7 +6786,7 @@
         <v>209.5</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>39674</v>
       </c>
@@ -6788,7 +6872,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>40212</v>
       </c>
@@ -6874,7 +6958,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>40302</v>
       </c>
@@ -6960,7 +7044,7 @@
         <v>125.5</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>40390</v>
       </c>
@@ -7046,7 +7130,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>40395</v>
       </c>
@@ -7132,7 +7216,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="15.75" thickBot="1">
+    <row r="72" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>40479</v>
       </c>
@@ -7218,7 +7302,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>40335</v>
       </c>
@@ -7304,7 +7388,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>40440</v>
       </c>
@@ -7390,7 +7474,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>40473</v>
       </c>
@@ -7476,7 +7560,7 @@
         <v>125.5</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>40478</v>
       </c>
@@ -7562,7 +7646,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>40228</v>
       </c>
@@ -7648,7 +7732,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>40295</v>
       </c>
@@ -7734,7 +7818,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>39689</v>
       </c>
@@ -7820,7 +7904,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>40482</v>
       </c>
@@ -7906,7 +7990,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="5:28">
+    <row r="81" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -7932,102 +8016,8 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="5:28">
-      <c r="F82">
-        <f>MEDIAN(F2:F80)</f>
-        <v>57</v>
-      </c>
-      <c r="G82">
-        <f t="shared" ref="G82:AB82" si="0">MEDIAN(G2:G80)</f>
-        <v>11791.5</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="0"/>
-        <v>4010.5</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="0"/>
-        <v>66.5</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="0"/>
-        <v>24715</v>
-      </c>
-      <c r="L82">
-        <f t="shared" si="0"/>
-        <v>209</v>
-      </c>
-      <c r="M82">
-        <f t="shared" si="0"/>
-        <v>215</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="0"/>
-        <v>1349.5</v>
-      </c>
-      <c r="O82">
-        <f t="shared" si="0"/>
-        <v>4855</v>
-      </c>
-      <c r="P82">
-        <f t="shared" si="0"/>
-        <v>410</v>
-      </c>
-      <c r="Q82">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="R82">
-        <f t="shared" si="0"/>
-        <v>278.5</v>
-      </c>
-      <c r="S82">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="T82">
-        <f t="shared" si="0"/>
-        <v>3922.5</v>
-      </c>
-      <c r="U82">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="V82">
-        <f t="shared" si="0"/>
-        <v>2194</v>
-      </c>
-      <c r="W82">
-        <f t="shared" si="0"/>
-        <v>4183</v>
-      </c>
-      <c r="X82">
-        <f t="shared" si="0"/>
-        <v>1437</v>
-      </c>
-      <c r="Y82">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="Z82">
-        <f t="shared" si="0"/>
-        <v>1784</v>
-      </c>
-      <c r="AA82">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="AB82">
-        <f t="shared" si="0"/>
-        <v>181.5</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:AB81">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB81">
     <sortCondition ref="D2:D81"/>
     <sortCondition ref="C2:C81"/>
   </sortState>
@@ -8036,7 +8026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -8044,9 +8034,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -8064,7 +8054,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -8090,7 +8080,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!N2</f>
         <v>70</v>
@@ -8124,7 +8114,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!N3</f>
         <v>1388</v>
@@ -8158,7 +8148,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!N4</f>
         <v>57</v>
@@ -8192,7 +8182,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!N5</f>
         <v>1542</v>
@@ -8226,7 +8216,7 @@
         <v>1898.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!N6</f>
         <v>155.5</v>
@@ -8260,7 +8250,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!N7</f>
         <v>12</v>
@@ -8294,7 +8284,7 @@
         <v>12614</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!N8</f>
         <v>45</v>
@@ -8328,7 +8318,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!N9</f>
         <v>109</v>
@@ -8359,7 +8349,7 @@
         <v>2058.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!N10</f>
         <v>193</v>
@@ -8381,7 +8371,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!N11</f>
         <v>750.5</v>
@@ -8403,7 +8393,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!N12</f>
         <v>3044.5</v>
@@ -8425,7 +8415,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!N13</f>
         <v>489</v>
@@ -8459,7 +8449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -8467,9 +8457,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -8487,7 +8477,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -8513,7 +8503,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!O2</f>
         <v>153</v>
@@ -8547,7 +8537,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!O3</f>
         <v>17415</v>
@@ -8581,7 +8571,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!O4</f>
         <v>772</v>
@@ -8615,7 +8605,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!O5</f>
         <v>3756</v>
@@ -8649,7 +8639,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!O6</f>
         <v>777</v>
@@ -8683,7 +8673,7 @@
         <v>947.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!O7</f>
         <v>19</v>
@@ -8717,7 +8707,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!O8</f>
         <v>215</v>
@@ -8751,7 +8741,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!O9</f>
         <v>802</v>
@@ -8782,7 +8772,7 @@
         <v>2110.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!O10</f>
         <v>3108</v>
@@ -8804,7 +8794,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!O11</f>
         <v>2310</v>
@@ -8826,7 +8816,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!O12</f>
         <v>20918.5</v>
@@ -8848,7 +8838,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!O13</f>
         <v>5590</v>
@@ -8882,7 +8872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -8890,9 +8880,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -8910,7 +8900,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -8936,7 +8926,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!P2</f>
         <v>74</v>
@@ -8970,7 +8960,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!P3</f>
         <v>1246</v>
@@ -9004,7 +8994,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!P4</f>
         <v>67</v>
@@ -9038,7 +9028,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!P5</f>
         <v>1109.5</v>
@@ -9072,7 +9062,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!P6</f>
         <v>118</v>
@@ -9106,7 +9096,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!P7</f>
         <v>17</v>
@@ -9140,7 +9130,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!P8</f>
         <v>41</v>
@@ -9174,7 +9164,7 @@
         <v>170.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!P9</f>
         <v>112</v>
@@ -9205,7 +9195,7 @@
         <v>420.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!P10</f>
         <v>185</v>
@@ -9227,7 +9217,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!P11</f>
         <v>628.5</v>
@@ -9249,7 +9239,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!P12</f>
         <v>1390</v>
@@ -9271,7 +9261,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!P13</f>
         <v>504.5</v>
@@ -9305,7 +9295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -9313,9 +9303,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -9333,7 +9323,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -9359,7 +9349,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!Q2</f>
         <v>30</v>
@@ -9393,7 +9383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!Q3</f>
         <v>131</v>
@@ -9427,7 +9417,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!Q4</f>
         <v>45</v>
@@ -9461,7 +9451,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!Q5</f>
         <v>109</v>
@@ -9495,7 +9485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!Q6</f>
         <v>56</v>
@@ -9529,7 +9519,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!Q7</f>
         <v>20</v>
@@ -9563,7 +9553,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!Q8</f>
         <v>41.5</v>
@@ -9597,7 +9587,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!Q9</f>
         <v>67</v>
@@ -9628,7 +9618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!Q10</f>
         <v>102</v>
@@ -9650,7 +9640,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!Q11</f>
         <v>77</v>
@@ -9672,7 +9662,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!Q12</f>
         <v>190</v>
@@ -9694,7 +9684,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!Q13</f>
         <v>65</v>
@@ -9728,7 +9718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -9736,9 +9726,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -9756,7 +9746,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -9782,7 +9772,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!R2</f>
         <v>30</v>
@@ -9816,7 +9806,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!R3</f>
         <v>456</v>
@@ -9850,7 +9840,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!R4</f>
         <v>42</v>
@@ -9884,7 +9874,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!R5</f>
         <v>503</v>
@@ -9918,7 +9908,7 @@
         <v>383.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!R6</f>
         <v>64</v>
@@ -9952,7 +9942,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!R7</f>
         <v>14</v>
@@ -9986,7 +9976,7 @@
         <v>1043.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!R8</f>
         <v>35</v>
@@ -10020,7 +10010,7 @@
         <v>278.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!R9</f>
         <v>62</v>
@@ -10051,7 +10041,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!R10</f>
         <v>120</v>
@@ -10073,7 +10063,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!R11</f>
         <v>170</v>
@@ -10095,7 +10085,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!R12</f>
         <v>1067</v>
@@ -10117,7 +10107,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!R13</f>
         <v>142</v>
@@ -10151,7 +10141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -10159,9 +10149,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -10179,7 +10169,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -10205,7 +10195,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!S2</f>
         <v>21</v>
@@ -10239,7 +10229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!S3</f>
         <v>147</v>
@@ -10273,7 +10263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!S4</f>
         <v>30</v>
@@ -10307,7 +10297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!S5</f>
         <v>88</v>
@@ -10341,7 +10331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!S6</f>
         <v>43</v>
@@ -10375,7 +10365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!S7</f>
         <v>12</v>
@@ -10409,7 +10399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!S8</f>
         <v>30</v>
@@ -10443,7 +10433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!S9</f>
         <v>46</v>
@@ -10474,7 +10464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!S10</f>
         <v>103</v>
@@ -10496,7 +10486,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!S11</f>
         <v>73.5</v>
@@ -10518,7 +10508,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!S12</f>
         <v>164</v>
@@ -10540,7 +10530,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!S13</f>
         <v>87</v>
@@ -10574,7 +10564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -10582,9 +10572,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -10602,7 +10592,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -10628,7 +10618,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!T2</f>
         <v>394</v>
@@ -10662,7 +10652,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!T3</f>
         <v>7228</v>
@@ -10696,7 +10686,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!T4</f>
         <v>377</v>
@@ -10730,7 +10720,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!T5</f>
         <v>7123.5</v>
@@ -10764,7 +10754,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!T6</f>
         <v>1179</v>
@@ -10798,7 +10788,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!T7</f>
         <v>15</v>
@@ -10832,7 +10822,7 @@
         <v>1303.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!T8</f>
         <v>250</v>
@@ -10866,7 +10856,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!T9</f>
         <v>1128.5</v>
@@ -10897,7 +10887,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!T10</f>
         <v>2104.5</v>
@@ -10919,7 +10909,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!T11</f>
         <v>8167.5</v>
@@ -10941,7 +10931,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!T12</f>
         <v>7929</v>
@@ -10963,7 +10953,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!T13</f>
         <v>4799</v>
@@ -10997,7 +10987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -11005,9 +10995,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -11025,7 +11015,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -11051,7 +11041,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!U2</f>
         <v>23.5</v>
@@ -11085,7 +11075,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!U3</f>
         <v>128</v>
@@ -11119,7 +11109,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!U4</f>
         <v>37.5</v>
@@ -11153,7 +11143,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!U5</f>
         <v>74</v>
@@ -11187,7 +11177,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!U6</f>
         <v>46</v>
@@ -11221,7 +11211,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!U7</f>
         <v>12</v>
@@ -11255,7 +11245,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!U8</f>
         <v>31</v>
@@ -11289,7 +11279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!U9</f>
         <v>46</v>
@@ -11320,7 +11310,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!U10</f>
         <v>107</v>
@@ -11342,7 +11332,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!U11</f>
         <v>72</v>
@@ -11364,7 +11354,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!U12</f>
         <v>156.5</v>
@@ -11386,7 +11376,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!U13</f>
         <v>102</v>
@@ -11420,7 +11410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -11428,9 +11418,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -11448,7 +11438,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -11474,7 +11464,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!V2</f>
         <v>39</v>
@@ -11508,7 +11498,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!V3</f>
         <v>6603</v>
@@ -11542,7 +11532,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!V4</f>
         <v>124.5</v>
@@ -11576,7 +11566,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!V5</f>
         <v>2194</v>
@@ -11610,7 +11600,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!V6</f>
         <v>873.5</v>
@@ -11644,7 +11634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!V7</f>
         <v>9</v>
@@ -11678,7 +11668,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!V8</f>
         <v>148.5</v>
@@ -11712,7 +11702,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!V9</f>
         <v>455</v>
@@ -11743,7 +11733,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!V10</f>
         <v>1918.5</v>
@@ -11765,7 +11755,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!V11</f>
         <v>1089</v>
@@ -11787,7 +11777,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!V12</f>
         <v>11850</v>
@@ -11809,7 +11799,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!V13</f>
         <v>1542</v>
@@ -11843,7 +11833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -11851,9 +11841,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -11871,7 +11861,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -11897,7 +11887,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!W2</f>
         <v>176</v>
@@ -11931,7 +11921,7 @@
         <v>3898</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!W3</f>
         <v>5827</v>
@@ -11965,7 +11955,7 @@
         <v>6382</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!W4</f>
         <v>860</v>
@@ -11999,7 +11989,7 @@
         <v>5507</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!W5</f>
         <v>5116.5</v>
@@ -12033,7 +12023,7 @@
         <v>5791</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!W6</f>
         <v>1036</v>
@@ -12067,7 +12057,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!W7</f>
         <v>20</v>
@@ -12101,7 +12091,7 @@
         <v>6970</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!W8</f>
         <v>64.5</v>
@@ -12135,7 +12125,7 @@
         <v>3685</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!W9</f>
         <v>1500</v>
@@ -12166,7 +12156,7 @@
         <v>7314</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!W10</f>
         <v>2695</v>
@@ -12188,7 +12178,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!W11</f>
         <v>3615</v>
@@ -12210,7 +12200,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!W12</f>
         <v>4921</v>
@@ -12232,7 +12222,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!W13</f>
         <v>5067</v>
@@ -12266,7 +12256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -12274,9 +12264,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>113</v>
       </c>
@@ -12294,7 +12284,7 @@
       </c>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -12320,7 +12310,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!F2</f>
         <v>21</v>
@@ -12354,7 +12344,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!F3</f>
         <v>134.5</v>
@@ -12388,7 +12378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!F4</f>
         <v>25</v>
@@ -12422,7 +12412,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!F5</f>
         <v>114.5</v>
@@ -12456,7 +12446,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!F6</f>
         <v>43</v>
@@ -12490,7 +12480,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!F7</f>
         <v>9</v>
@@ -12524,7 +12514,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!F8</f>
         <v>23.5</v>
@@ -12558,7 +12548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!F9</f>
         <v>45</v>
@@ -12589,7 +12579,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!F10</f>
         <v>97.5</v>
@@ -12611,7 +12601,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!F11</f>
         <v>100.5</v>
@@ -12633,7 +12623,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!F12</f>
         <v>147</v>
@@ -12655,7 +12645,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!F13</f>
         <v>130.5</v>
@@ -12689,7 +12679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -12697,9 +12687,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -12717,7 +12707,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -12743,7 +12733,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!X2</f>
         <v>128</v>
@@ -12777,7 +12767,7 @@
         <v>666.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!X3</f>
         <v>2175</v>
@@ -12811,7 +12801,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!X4</f>
         <v>147</v>
@@ -12845,7 +12835,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!X5</f>
         <v>2293</v>
@@ -12879,7 +12869,7 @@
         <v>4813</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!X6</f>
         <v>681.5</v>
@@ -12913,7 +12903,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!X7</f>
         <v>11</v>
@@ -12947,7 +12937,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!X8</f>
         <v>52</v>
@@ -12981,7 +12971,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!X9</f>
         <v>377</v>
@@ -13012,7 +13002,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!X10</f>
         <v>447</v>
@@ -13034,7 +13024,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!X11</f>
         <v>4583.5</v>
@@ -13056,7 +13046,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!X12</f>
         <v>4212.5</v>
@@ -13078,7 +13068,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!X13</f>
         <v>1296.5</v>
@@ -13112,7 +13102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -13120,9 +13110,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -13140,7 +13130,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -13166,7 +13156,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!Y2</f>
         <v>22</v>
@@ -13200,7 +13190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!Y3</f>
         <v>186</v>
@@ -13234,7 +13224,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!Y4</f>
         <v>28</v>
@@ -13268,7 +13258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!Y5</f>
         <v>114</v>
@@ -13302,7 +13292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!Y6</f>
         <v>57</v>
@@ -13336,7 +13326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!Y7</f>
         <v>9</v>
@@ -13370,7 +13360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!Y8</f>
         <v>29</v>
@@ -13404,7 +13394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!Y9</f>
         <v>60.5</v>
@@ -13435,7 +13425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!Y10</f>
         <v>115.5</v>
@@ -13457,7 +13447,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!Y11</f>
         <v>112</v>
@@ -13479,7 +13469,7 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!Y12</f>
         <v>252.5</v>
@@ -13501,7 +13491,7 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!Y13</f>
         <v>85</v>
@@ -13535,7 +13525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -13543,9 +13533,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -13563,7 +13553,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -13589,7 +13579,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!Z2</f>
         <v>153</v>
@@ -13623,7 +13613,7 @@
         <v>4056</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!Z3</f>
         <v>2075</v>
@@ -13657,7 +13647,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!Z4</f>
         <v>172</v>
@@ -13691,7 +13681,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!Z5</f>
         <v>1561.5</v>
@@ -13725,7 +13715,7 @@
         <v>3135.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!Z6</f>
         <v>359</v>
@@ -13759,7 +13749,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!Z7</f>
         <v>11</v>
@@ -13793,7 +13783,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!Z8</f>
         <v>77</v>
@@ -13827,7 +13817,7 @@
         <v>3215</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!Z9</f>
         <v>867</v>
@@ -13858,7 +13848,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!Z10</f>
         <v>797.5</v>
@@ -13880,7 +13870,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!Z11</f>
         <v>1008</v>
@@ -13902,7 +13892,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!Z12</f>
         <v>3042</v>
@@ -13924,7 +13914,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!Z13</f>
         <v>1637</v>
@@ -13946,7 +13936,7 @@
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16">
         <v>9</v>
       </c>
@@ -13963,7 +13953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -13971,9 +13961,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -13991,7 +13981,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -14017,7 +14007,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!AA2</f>
         <v>33</v>
@@ -14051,7 +14041,7 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!AA3</f>
         <v>149</v>
@@ -14085,7 +14075,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!AA4</f>
         <v>41</v>
@@ -14119,7 +14109,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!AA5</f>
         <v>124</v>
@@ -14153,7 +14143,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!AA6</f>
         <v>53.5</v>
@@ -14187,7 +14177,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!AA7</f>
         <v>14</v>
@@ -14221,7 +14211,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!AA8</f>
         <v>31.5</v>
@@ -14255,7 +14245,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!AA9</f>
         <v>62</v>
@@ -14286,7 +14276,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!AA10</f>
         <v>74.5</v>
@@ -14308,7 +14298,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!AA11</f>
         <v>116.5</v>
@@ -14330,7 +14320,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!AA12</f>
         <v>188</v>
@@ -14352,7 +14342,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!AA13</f>
         <v>125</v>
@@ -14386,7 +14376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -14394,9 +14384,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -14414,7 +14404,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -14440,7 +14430,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!AB2</f>
         <v>52</v>
@@ -14474,7 +14464,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!AB3</f>
         <v>330</v>
@@ -14508,7 +14498,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!AB4</f>
         <v>73</v>
@@ -14542,7 +14532,7 @@
         <v>125.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!AB5</f>
         <v>272</v>
@@ -14576,7 +14566,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!AB6</f>
         <v>83.5</v>
@@ -14610,7 +14600,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!AB7</f>
         <v>17</v>
@@ -14644,7 +14634,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!AB8</f>
         <v>41</v>
@@ -14678,7 +14668,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!AB9</f>
         <v>118</v>
@@ -14709,7 +14699,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!AB10</f>
         <v>264.5</v>
@@ -14731,7 +14721,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!AB11</f>
         <v>194</v>
@@ -14753,7 +14743,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!AB12</f>
         <v>405</v>
@@ -14775,7 +14765,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!AB13</f>
         <v>237</v>
@@ -14809,7 +14799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:C80"/>
   <sheetViews>
@@ -14817,14 +14807,14 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -14835,7 +14825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -14846,7 +14836,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -14857,7 +14847,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -14868,7 +14858,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -14879,7 +14869,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -14890,7 +14880,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -14901,7 +14891,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -14912,7 +14902,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -14923,7 +14913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -14934,7 +14924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -14945,7 +14935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -14956,7 +14946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1">
+    <row r="13" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>110</v>
       </c>
@@ -14967,7 +14957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -14978,7 +14968,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -14989,7 +14979,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -15000,7 +14990,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -15011,7 +15001,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -15022,7 +15012,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -15033,7 +15023,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>110</v>
       </c>
@@ -15044,7 +15034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+    <row r="21" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>110</v>
       </c>
@@ -15055,7 +15045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>107</v>
       </c>
@@ -15066,7 +15056,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -15077,7 +15067,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -15088,7 +15078,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -15099,7 +15089,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -15110,7 +15100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -15121,7 +15111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -15132,7 +15122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -15143,7 +15133,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -15154,7 +15144,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>109</v>
       </c>
@@ -15165,7 +15155,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -15176,7 +15166,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1">
+    <row r="33" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>107</v>
       </c>
@@ -15187,7 +15177,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -15198,7 +15188,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -15209,7 +15199,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>107</v>
       </c>
@@ -15220,7 +15210,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>110</v>
       </c>
@@ -15231,7 +15221,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -15242,7 +15232,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -15253,7 +15243,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1">
+    <row r="40" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>110</v>
       </c>
@@ -15264,7 +15254,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -15275,7 +15265,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>111</v>
       </c>
@@ -15286,7 +15276,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>111</v>
       </c>
@@ -15297,7 +15287,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>111</v>
       </c>
@@ -15308,7 +15298,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>110</v>
       </c>
@@ -15319,7 +15309,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>110</v>
       </c>
@@ -15330,7 +15320,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>110</v>
       </c>
@@ -15341,7 +15331,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>110</v>
       </c>
@@ -15352,7 +15342,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>107</v>
       </c>
@@ -15363,7 +15353,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -15374,7 +15364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -15385,7 +15375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1">
+    <row r="52" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>107</v>
       </c>
@@ -15396,7 +15386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>107</v>
       </c>
@@ -15407,7 +15397,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -15418,7 +15408,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -15429,7 +15419,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -15440,7 +15430,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>111</v>
       </c>
@@ -15451,7 +15441,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -15462,7 +15452,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -15473,7 +15463,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1">
+    <row r="60" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>111</v>
       </c>
@@ -15484,7 +15474,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>111</v>
       </c>
@@ -15495,7 +15485,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>111</v>
       </c>
@@ -15506,7 +15496,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>111</v>
       </c>
@@ -15517,7 +15507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>111</v>
       </c>
@@ -15528,7 +15518,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -15539,7 +15529,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -15550,7 +15540,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>110</v>
       </c>
@@ -15561,7 +15551,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -15572,7 +15562,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>111</v>
       </c>
@@ -15583,7 +15573,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>111</v>
       </c>
@@ -15594,7 +15584,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>111</v>
       </c>
@@ -15605,7 +15595,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" thickBot="1">
+    <row r="72" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>111</v>
       </c>
@@ -15616,7 +15606,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>107</v>
       </c>
@@ -15627,7 +15617,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -15638,7 +15628,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>107</v>
       </c>
@@ -15649,7 +15639,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>107</v>
       </c>
@@ -15660,7 +15650,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>112</v>
       </c>
@@ -15671,7 +15661,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>112</v>
       </c>
@@ -15682,7 +15672,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>112</v>
       </c>
@@ -15693,7 +15683,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>112</v>
       </c>
@@ -15705,7 +15695,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C80">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C80">
     <sortCondition ref="C2:C80"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15713,7 +15703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -15721,9 +15711,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>113</v>
       </c>
@@ -15741,7 +15731,7 @@
       </c>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -15767,7 +15757,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!G2</f>
         <v>3651</v>
@@ -15801,7 +15791,7 @@
         <v>5789.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!G3</f>
         <v>14457</v>
@@ -15835,7 +15825,7 @@
         <v>9210</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!G4</f>
         <v>3830</v>
@@ -15869,7 +15859,7 @@
         <v>10146.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!G5</f>
         <v>16281.5</v>
@@ -15903,7 +15893,7 @@
         <v>6716</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!G6</f>
         <v>4992</v>
@@ -15937,7 +15927,7 @@
         <v>5525</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!G7</f>
         <v>10</v>
@@ -15971,7 +15961,7 @@
         <v>11350</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!G8</f>
         <v>1337</v>
@@ -16005,7 +15995,7 @@
         <v>4660</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!G9</f>
         <v>11683</v>
@@ -16036,7 +16026,7 @@
         <v>8263</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!G10</f>
         <v>11334.5</v>
@@ -16058,7 +16048,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!G11</f>
         <v>17511</v>
@@ -16080,7 +16070,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!G12</f>
         <v>21893</v>
@@ -16102,7 +16092,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!G13</f>
         <v>18767</v>
@@ -16136,7 +16126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -16144,9 +16134,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>113</v>
       </c>
@@ -16164,7 +16154,7 @@
       </c>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -16190,7 +16180,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!H2</f>
         <v>1004</v>
@@ -16224,7 +16214,7 @@
         <v>4125</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!H3</f>
         <v>6711</v>
@@ -16258,7 +16248,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!H4</f>
         <v>722.5</v>
@@ -16292,7 +16282,7 @@
         <v>3182</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!H5</f>
         <v>6166.5</v>
@@ -16326,7 +16316,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!H6</f>
         <v>2979.5</v>
@@ -16360,7 +16350,7 @@
         <v>1689.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!H7</f>
         <v>12</v>
@@ -16394,7 +16384,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!H8</f>
         <v>303</v>
@@ -16428,7 +16418,7 @@
         <v>1000.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!H9</f>
         <v>3989</v>
@@ -16459,7 +16449,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!H10</f>
         <v>4323</v>
@@ -16481,7 +16471,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!H11</f>
         <v>7272</v>
@@ -16503,7 +16493,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!H12</f>
         <v>6963</v>
@@ -16525,7 +16515,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!H13</f>
         <v>6829</v>
@@ -16559,7 +16549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -16567,9 +16557,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>113</v>
       </c>
@@ -16587,7 +16577,7 @@
       </c>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -16613,7 +16603,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!I2</f>
         <v>30</v>
@@ -16647,7 +16637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!I3</f>
         <v>174</v>
@@ -16681,7 +16671,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!I4</f>
         <v>37</v>
@@ -16715,7 +16705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!I5</f>
         <v>93</v>
@@ -16749,7 +16739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!I6</f>
         <v>41</v>
@@ -16783,7 +16773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!I7</f>
         <v>10</v>
@@ -16817,7 +16807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!I8</f>
         <v>24</v>
@@ -16851,7 +16841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!I9</f>
         <v>62</v>
@@ -16882,7 +16872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!I10</f>
         <v>188</v>
@@ -16904,7 +16894,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!I11</f>
         <v>107.5</v>
@@ -16926,7 +16916,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!I12</f>
         <v>212</v>
@@ -16948,7 +16938,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!I13</f>
         <v>98.5</v>
@@ -16982,7 +16972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -16990,9 +16980,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>113</v>
       </c>
@@ -17010,7 +17000,7 @@
       </c>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -17036,7 +17026,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!J2</f>
         <v>35.5</v>
@@ -17070,7 +17060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!J3</f>
         <v>118</v>
@@ -17104,7 +17094,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!J4</f>
         <v>38</v>
@@ -17138,7 +17128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!J5</f>
         <v>97</v>
@@ -17172,7 +17162,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!J6</f>
         <v>48</v>
@@ -17206,7 +17196,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!J7</f>
         <v>18</v>
@@ -17240,7 +17230,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!J8</f>
         <v>39</v>
@@ -17274,7 +17264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!J9</f>
         <v>57</v>
@@ -17305,7 +17295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!J10</f>
         <v>99</v>
@@ -17327,7 +17317,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!J11</f>
         <v>88</v>
@@ -17349,7 +17339,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!J12</f>
         <v>162.5</v>
@@ -17371,7 +17361,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!J13</f>
         <v>83</v>
@@ -17405,7 +17395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -17413,9 +17403,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>113</v>
       </c>
@@ -17433,7 +17423,7 @@
       </c>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -17459,7 +17449,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!K2</f>
         <v>11483</v>
@@ -17493,7 +17483,7 @@
         <v>25527</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!K3</f>
         <v>24715</v>
@@ -17527,7 +17517,7 @@
         <v>24721</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!K4</f>
         <v>9610</v>
@@ -17561,7 +17551,7 @@
         <v>25297</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!K5</f>
         <v>25012</v>
@@ -17595,7 +17585,7 @@
         <v>25699.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!K6</f>
         <v>16752</v>
@@ -17629,7 +17619,7 @@
         <v>25620.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!K7</f>
         <v>25</v>
@@ -17663,7 +17653,7 @@
         <v>25431</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!K8</f>
         <v>3531</v>
@@ -17697,7 +17687,7 @@
         <v>26092</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!K9</f>
         <v>23126</v>
@@ -17728,7 +17718,7 @@
         <v>25310</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!K10</f>
         <v>20517</v>
@@ -17750,7 +17740,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!K11</f>
         <v>25009</v>
@@ -17772,7 +17762,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!K12</f>
         <v>23852</v>
@@ -17794,7 +17784,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!K13</f>
         <v>25031.5</v>
@@ -17828,7 +17818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -17836,9 +17826,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>113</v>
       </c>
@@ -17856,7 +17846,7 @@
       </c>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -17882,7 +17872,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!L2</f>
         <v>36</v>
@@ -17916,7 +17906,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!L3</f>
         <v>195</v>
@@ -17950,7 +17940,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!L4</f>
         <v>45</v>
@@ -17984,7 +17974,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!L5</f>
         <v>209</v>
@@ -18018,7 +18008,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!L6</f>
         <v>78</v>
@@ -18052,7 +18042,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!L7</f>
         <v>15</v>
@@ -18086,7 +18076,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!L8</f>
         <v>34</v>
@@ -18120,7 +18110,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!L9</f>
         <v>52.5</v>
@@ -18151,7 +18141,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!L10</f>
         <v>133</v>
@@ -18173,7 +18163,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!L11</f>
         <v>89</v>
@@ -18195,7 +18185,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!L12</f>
         <v>224</v>
@@ -18217,7 +18207,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!L13</f>
         <v>119.5</v>
@@ -18251,7 +18241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -18259,9 +18249,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>113</v>
       </c>
@@ -18279,7 +18269,7 @@
       </c>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -18305,7 +18295,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!M2</f>
         <v>28</v>
@@ -18339,7 +18329,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!M3</f>
         <v>550</v>
@@ -18373,7 +18363,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!M4</f>
         <v>38</v>
@@ -18407,7 +18397,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!M5</f>
         <v>534</v>
@@ -18441,7 +18431,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!M6</f>
         <v>63</v>
@@ -18475,7 +18465,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!M7</f>
         <v>11</v>
@@ -18509,7 +18499,7 @@
         <v>301.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!M8</f>
         <v>28</v>
@@ -18543,7 +18533,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!M9</f>
         <v>78</v>
@@ -18574,7 +18564,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!M10</f>
         <v>212</v>
@@ -18596,7 +18586,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!M11</f>
         <v>163</v>
@@ -18618,7 +18608,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!M12</f>
         <v>973</v>
@@ -18640,7 +18630,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!M13</f>
         <v>100</v>
